--- a/biology/Botanique/Amorphophallus_paeoniifolius/Amorphophallus_paeoniifolius.xlsx
+++ b/biology/Botanique/Amorphophallus_paeoniifolius/Amorphophallus_paeoniifolius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amorphophallus paeoniifolius · Cambarre de Java
 Amorphophallus paeoniifolius est une espèce de plantes monocotylédones de la famille des Araceae, sous-famille des Aroideae, originaire du Sud-Est asiatique et d'Australasie.
@@ -516,9 +528,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (18 novembre 2020)[1] :
-Amorphophallus campanulatus Blume ex Decne.[2]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (18 novembre 2020) :
+Amorphophallus campanulatus Blume ex Decne.
 Amorphophallus campanulatus Decne.
 Amorphophallus decurrens (Blanco) Kunth
 Amorphophallus giganteus Blume
@@ -540,13 +557,82 @@
 Kunda verrucosa Raf.
 Plesmonium nobile Schott
 Pythion campanulatum Mart.
-Variétés
-Selon NCBI  (18 novembre 2020)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amorphophallus_paeoniifolius</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amorphophallus_paeoniifolius</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (18 novembre 2020) :
 Amorphophallus paeoniifolius var. bangkokensis
 Amorphophallus paeoniifolius var. campanulatus
-Amorphophallus paeoniifolius var. paeoniifolius
-Noms vernaculaires
-En français, cette espèce est appelée « plante sept chemises » (aux Antilles) ou « Cambarre de Java »[4].
+Amorphophallus paeoniifolius var. paeoniifolius</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amorphophallus_paeoniifolius</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amorphophallus_paeoniifolius</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En français, cette espèce est appelée « plante sept chemises » (aux Antilles) ou « Cambarre de Java ».
 </t>
         </is>
       </c>
